--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_11.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_11.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_9</t>
+          <t>model_1_11_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9989174840296977</v>
+        <v>0.9500498682478633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8269724072488119</v>
+        <v>0.7394999839783928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8180053743832725</v>
+        <v>0.7575503872216411</v>
       </c>
       <c r="E2" t="n">
-        <v>0.993301699063974</v>
+        <v>0.9601092320170158</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004506001626130952</v>
+        <v>0.1751007154227133</v>
       </c>
       <c r="G2" t="n">
-        <v>1.157036309446001</v>
+        <v>1.741964806628767</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6509842231763233</v>
+        <v>0.8672282068719166</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008926744453250398</v>
+        <v>0.2206910326301211</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2775938756894445</v>
+        <v>1.334352968308368</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0671267578997448</v>
+        <v>0.4184503739067672</v>
       </c>
       <c r="L2" t="n">
-        <v>1.069281022099347</v>
+        <v>0.9319827993162394</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06818393723452595</v>
+        <v>0.4250405489988874</v>
       </c>
       <c r="N2" t="n">
-        <v>140.8046901521818</v>
+        <v>37.48478790780725</v>
       </c>
       <c r="O2" t="n">
-        <v>282.1398626953982</v>
+        <v>74.44937149603308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_8</t>
+          <t>model_1_11_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9989114506064226</v>
+        <v>0.9500258264730808</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8268582912016245</v>
+        <v>0.7394265845851363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8179637074117398</v>
+        <v>0.7576455033155828</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933797070325325</v>
+        <v>0.9595663348532709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004531115911586733</v>
+        <v>0.1751849941186201</v>
       </c>
       <c r="G3" t="n">
-        <v>1.157799403978999</v>
+        <v>1.742455628709446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6511332635175058</v>
+        <v>0.8668879821190352</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008822784179251099</v>
+        <v>0.2236945480232049</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2775171132643089</v>
+        <v>1.329372756428065</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06731356409808303</v>
+        <v>0.4185510651266105</v>
       </c>
       <c r="L3" t="n">
-        <v>1.069667161188953</v>
+        <v>0.9319500615803653</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06837368544375032</v>
+        <v>0.4251428260047889</v>
       </c>
       <c r="N3" t="n">
-        <v>140.7935740634497</v>
+        <v>37.48382550831179</v>
       </c>
       <c r="O3" t="n">
-        <v>282.128746606666</v>
+        <v>74.4484090965376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_7</t>
+          <t>model_1_11_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9988109351189087</v>
+        <v>0.9499736343694454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8259556401565441</v>
+        <v>0.739164175849552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8160062037570818</v>
+        <v>0.7578174431489246</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9928510480809556</v>
+        <v>0.959222210956116</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004949514311808539</v>
+        <v>0.175367954090204</v>
       </c>
       <c r="G4" t="n">
-        <v>1.163835435673778</v>
+        <v>1.74421035713258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6581351405876346</v>
+        <v>0.8662729633048156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009527321555030816</v>
+        <v>0.2255983734458743</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3013698845630655</v>
+        <v>1.326830709458734</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07035278467700151</v>
+        <v>0.418769571590635</v>
       </c>
       <c r="L4" t="n">
-        <v>1.076100152389841</v>
+        <v>0.931878991481798</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07146077070868079</v>
+        <v>0.4253647737271955</v>
       </c>
       <c r="N4" t="n">
-        <v>140.6169316520841</v>
+        <v>37.48173783523266</v>
       </c>
       <c r="O4" t="n">
-        <v>281.9521041953005</v>
+        <v>74.44632142345847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_5</t>
+          <t>model_1_11_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.998778849297895</v>
+        <v>0.9495517186206579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8258750567790138</v>
+        <v>0.738065653404938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8159534081652956</v>
+        <v>0.7581152721233977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9928442425402907</v>
+        <v>0.9556355605184967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00508307239836823</v>
+        <v>0.1768469842122343</v>
       </c>
       <c r="G5" t="n">
-        <v>1.164374297090375</v>
+        <v>1.751556181777944</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6583239873581893</v>
+        <v>0.8652076463322417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009536391216570751</v>
+        <v>0.2454410996901803</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3038085318419526</v>
+        <v>1.300329636018628</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07129566886121645</v>
+        <v>0.4205317873980923</v>
       </c>
       <c r="L5" t="n">
-        <v>1.078153644934723</v>
+        <v>0.931304467908981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07241850437625874</v>
+        <v>0.4271547426720508</v>
       </c>
       <c r="N5" t="n">
-        <v>140.5636787947658</v>
+        <v>37.46494083255307</v>
       </c>
       <c r="O5" t="n">
-        <v>281.8988513379821</v>
+        <v>74.42952442077889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_6</t>
+          <t>model_1_11_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9987990880465336</v>
+        <v>0.9495230051342898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8258494034809366</v>
+        <v>0.7380188113477251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8158824966100794</v>
+        <v>0.7580950959591537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9928508486397207</v>
+        <v>0.9553920631067917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004998828066849515</v>
+        <v>0.1769476396425399</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16454584081274</v>
+        <v>1.751869414830216</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6585776338795093</v>
+        <v>0.8652798153018613</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009527587347946754</v>
+        <v>0.2467882207898511</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3037938389635818</v>
+        <v>1.298576543130432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0707023908142399</v>
+        <v>0.4206514467377236</v>
       </c>
       <c r="L6" t="n">
-        <v>1.076858365021849</v>
+        <v>0.931265368693501</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07181588279310278</v>
+        <v>0.4272762865266657</v>
       </c>
       <c r="N6" t="n">
-        <v>140.5971035613019</v>
+        <v>37.46380282280126</v>
       </c>
       <c r="O6" t="n">
-        <v>281.9322761045183</v>
+        <v>74.42838641102708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_4</t>
+          <t>model_1_11_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9987372861820648</v>
+        <v>0.9494587073254034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8258098076737936</v>
+        <v>0.7380002240043904</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8158901537274488</v>
+        <v>0.7579437869498878</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9926905032655613</v>
+        <v>0.9547289970040886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005256079977614769</v>
+        <v>0.177173036291982</v>
       </c>
       <c r="G7" t="n">
-        <v>1.164810618157427</v>
+        <v>1.751993708480681</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6585502448146642</v>
+        <v>0.8658210388546048</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009741277684205454</v>
+        <v>0.250456556856231</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3107554671901891</v>
+        <v>1.293675702976944</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07249882742234366</v>
+        <v>0.4209192752678143</v>
       </c>
       <c r="L7" t="n">
-        <v>1.080813684347852</v>
+        <v>0.9311778142303365</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07364061148200637</v>
+        <v>0.427548333088375</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4967395629488</v>
+        <v>37.46125683556924</v>
       </c>
       <c r="O7" t="n">
-        <v>281.8319121061652</v>
+        <v>74.42584042379507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_3</t>
+          <t>model_1_11_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9986156318198832</v>
+        <v>0.949413494739711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8254561889658716</v>
+        <v>0.7379829438122727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8159045751919705</v>
+        <v>0.7578360121849252</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9923725845061433</v>
+        <v>0.9542965442343067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00576246950798191</v>
+        <v>0.1773315294895602</v>
       </c>
       <c r="G8" t="n">
-        <v>1.167175268085566</v>
+        <v>1.75210926120494</v>
       </c>
       <c r="H8" t="n">
-        <v>0.658498660072275</v>
+        <v>0.8662065429397363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01016496416072009</v>
+        <v>0.2528490514897676</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3222717111464687</v>
+        <v>1.29055453489968</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07591093141295205</v>
+        <v>0.421107503482852</v>
       </c>
       <c r="L8" t="n">
-        <v>1.088599563527474</v>
+        <v>0.9311162481562023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07710645269961422</v>
+        <v>0.4277395257096405</v>
       </c>
       <c r="N8" t="n">
-        <v>140.3127783242597</v>
+        <v>37.45946850082338</v>
       </c>
       <c r="O8" t="n">
-        <v>281.6479508674761</v>
+        <v>74.4240520890492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_2</t>
+          <t>model_1_11_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9986038916292654</v>
+        <v>0.9493927500423607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8254185764587937</v>
+        <v>0.7379796499146868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8159804428415804</v>
+        <v>0.7577775727230709</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9923825983902247</v>
+        <v>0.9540890464590744</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005811338364854103</v>
+        <v>0.1774042502456395</v>
       </c>
       <c r="G9" t="n">
-        <v>1.167426783093586</v>
+        <v>1.752131287513264</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6582272858886788</v>
+        <v>0.8664155775062743</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01015161877880418</v>
+        <v>0.2539970087891604</v>
       </c>
       <c r="J9" t="n">
-        <v>0.322760545514859</v>
+        <v>1.289059731443894</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07623213472581036</v>
+        <v>0.4211938392778787</v>
       </c>
       <c r="L9" t="n">
-        <v>1.089350935727012</v>
+        <v>0.9310880000576827</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07743271464356453</v>
+        <v>0.4278272212071347</v>
       </c>
       <c r="N9" t="n">
-        <v>140.2958887584989</v>
+        <v>37.45864850170006</v>
       </c>
       <c r="O9" t="n">
-        <v>281.6310613017154</v>
+        <v>74.42323208992589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_1</t>
+          <t>model_1_11_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9985488193759325</v>
+        <v>0.9493713278885855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.82517664648953</v>
+        <v>0.7379728496249638</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8158815911562954</v>
+        <v>0.757719525709038</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9922576383359003</v>
+        <v>0.953883423003933</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006040578089607154</v>
+        <v>0.1774793458323848</v>
       </c>
       <c r="G10" t="n">
-        <v>1.169044569912037</v>
+        <v>1.752176761081955</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6585808726351935</v>
+        <v>0.866623208309711</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01031815152829868</v>
+        <v>0.2551345966307251</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3297707480136795</v>
+        <v>1.287591123475422</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07772115599762495</v>
+        <v>0.4212829759584225</v>
       </c>
       <c r="L10" t="n">
-        <v>1.092875559940317</v>
+        <v>0.9310588294653079</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07894518651193502</v>
+        <v>0.4279177617012931</v>
       </c>
       <c r="N10" t="n">
-        <v>140.218511122831</v>
+        <v>37.45780207668977</v>
       </c>
       <c r="O10" t="n">
-        <v>281.5536836660474</v>
+        <v>74.42238566491559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_0</t>
+          <t>model_1_11_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9985356911824805</v>
+        <v>0.9493451548315582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8251277212310828</v>
+        <v>0.73794449673216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8159244908840294</v>
+        <v>0.7576741647615695</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9922837919086315</v>
+        <v>0.9536693702455494</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006095224545332527</v>
+        <v>0.1775710957607536</v>
       </c>
       <c r="G11" t="n">
-        <v>1.169371733340554</v>
+        <v>1.752366357006687</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6584274227965581</v>
+        <v>0.8667854617886273</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01028329697898228</v>
+        <v>0.2563188186117397</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3309791163897615</v>
+        <v>1.286116595449603</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07807191905757491</v>
+        <v>0.4213918553564527</v>
       </c>
       <c r="L11" t="n">
-        <v>1.093715764321246</v>
+        <v>0.9310231895578666</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07930147373944475</v>
+        <v>0.4280283558410028</v>
       </c>
       <c r="N11" t="n">
-        <v>140.2004993516396</v>
+        <v>37.45676842152799</v>
       </c>
       <c r="O11" t="n">
-        <v>281.535671894856</v>
+        <v>74.4213520097538</v>
       </c>
     </row>
   </sheetData>
